--- a/Inventario de Servicios Taller.xlsx
+++ b/Inventario de Servicios Taller.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>Inventario Empresarial Banco ABC</t>
   </si>
@@ -591,42 +591,6 @@
       </rPr>
       <t xml:space="preserve">con la información detallada de la cuenta consultada.
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cliente{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-numeroDocumento
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
     </r>
   </si>
   <si>
@@ -885,15 +849,115 @@
     <t>Esta capacidad permite consultar la información detallada de los convenios existentes, no recibe ningun parámetro.</t>
   </si>
   <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+String
+String
+Boolean</t>
+  </si>
+  <si>
+    <t>SOAP</t>
+  </si>
+  <si>
+    <t>generarNotificación</t>
+  </si>
+  <si>
+    <t>idFactura
+mesnaje</t>
+  </si>
+  <si>
+    <t>String
+String</t>
+  </si>
+  <si>
+    <t>mensajeRespuesta</t>
+  </si>
+  <si>
+    <t>http://localhost:9050/banco/convenio/v1/utilitario/</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
     <t>AdministrarConvenio,
-AdministraCuentas</t>
-  </si>
-  <si>
-    <t>DELETE</t>
+AdministraCuentas,
+Utilitarios</t>
   </si>
   <si>
     <t xml:space="preserve">
- AdministrarCompensación</t>
+ AdministrarCompensación,
+Utilitarios</t>
+  </si>
+  <si>
+    <t>Utilitarios</t>
+  </si>
+  <si>
+    <t>Esta operación permite enviar una notificación cuando se paga una factura o cuando se compensa una factura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+numeroDocumento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   userName
+   password   
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta operación permite validar los datos de acceso de un usuario, validando contra la informacion almacenada en SAP valida que el nombre usuario y contraseña sean correctos, para lo cual retorna un mensaje de autorización exitoso de lo contrario genera un mensaje de error:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Usuario no autorizado'</t>
+    </r>
+  </si>
+  <si>
+    <t>authorization</t>
+  </si>
+  <si>
+    <t>SAPAuthorization</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   Name
+   documentNumber
+   authorized
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:8080/ws</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1"/>
@@ -1068,14 +1132,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,7 +1451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K1"/>
@@ -1404,38 +1474,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1443,17 +1513,17 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="129" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1466,56 +1536,56 @@
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>60</v>
+      <c r="J3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="129" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>60</v>
+      <c r="J4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1536,19 +1606,19 @@
       <c r="H5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>60</v>
+      <c r="J5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1565,21 +1635,21 @@
       <c r="H6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>60</v>
+      <c r="J6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1597,22 +1667,22 @@
       <c r="G7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>60</v>
+      <c r="K7" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1630,26 +1700,26 @@
       <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="H8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>60</v>
+      <c r="J8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="104.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -1663,24 +1733,24 @@
       <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>60</v>
+      <c r="H9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1698,24 +1768,24 @@
       <c r="G10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>60</v>
+      <c r="J10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1733,53 +1803,123 @@
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>60</v>
+      <c r="J11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>60</v>
+      <c r="J12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:11" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:K1"/>
@@ -1800,8 +1940,10 @@
     <hyperlink ref="H9" r:id="rId8"/>
     <hyperlink ref="H12" r:id="rId9"/>
     <hyperlink ref="H3" r:id="rId10"/>
+    <hyperlink ref="H13" r:id="rId11"/>
+    <hyperlink ref="H14" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>